--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T12:56:11-05:00</t>
+    <t>2022-04-19T13:14:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T21:32:28-05:00</t>
+    <t>2022-04-24T12:38:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T12:38:40-05:00</t>
+    <t>2022-04-25T03:17:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T03:17:22-05:00</t>
+    <t>2022-04-25T04:33:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:33:18-05:00</t>
+    <t>2022-04-25T04:38:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:38:22-05:00</t>
+    <t>2022-05-01T20:03:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:03:30-05:00</t>
+    <t>2022-05-01T20:29:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:29:13-05:00</t>
+    <t>2022-05-04T12:20:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T12:20:47-05:00</t>
+    <t>2022-06-03T13:24:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T13:24:40-05:00</t>
+    <t>2022-06-15T12:17:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T12:17:27-04:00</t>
+    <t>2022-07-10T21:26:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T21:26:18-05:00</t>
+    <t>2022-07-15T12:22:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +82,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">	
+    <t xml:space="preserve">	
 Codes for use in defining access levels for sharing subsets of constrained content (as an example).</t>
   </si>
   <si>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T12:22:10-04:00</t>
+    <t>2022-07-15T15:24:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
